--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B56FE-C792-4D1B-A47C-F229898D7111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61722428-89F6-4925-A52A-4D2929F2EA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Never use any black-hat technices, it's a risky approach and might disable page indexing. Keep keywords in website content instead, maitaining it readable for user.</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Adapt size of your images</t>
+  </si>
+  <si>
+    <t>Oversized pictures significantly slow down the loading speed of the webpage</t>
+  </si>
+  <si>
+    <t>Always adjust size of the images to their cointainer, use for that graphic applications instead of css</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,10 +630,18 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="4" t="b">
         <v>0</v>
       </c>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61722428-89F6-4925-A52A-4D2929F2EA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D80062-DB95-436D-8356-97063F4E78BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Category</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Hidden Keywords in page structure</t>
   </si>
   <si>
-    <t>adding hidden keywords is a black-hat technique to improve SEO, what could be easily recognized by SEO robots, if so, website could be penalized and not appearing in indexing. Also it might be affecting accessibility, since the keywords might be getting focus or be read by screen readers</t>
-  </si>
-  <si>
     <t>Never use any black-hat technices, it's a risky approach and might disable page indexing. Keep keywords in website content instead, maitaining it readable for user.</t>
   </si>
   <si>
@@ -127,6 +124,21 @@
   </si>
   <si>
     <t>Always adjust size of the images to their cointainer, use for that graphic applications instead of css</t>
+  </si>
+  <si>
+    <t>keywords in alt attribute in img elements</t>
+  </si>
+  <si>
+    <t>1. Alt attribute is meant to containt a short description of the content of the image, so screen readers can read them out for accessibillity purposes</t>
+  </si>
+  <si>
+    <t>2. Placing key words in alt attribute is a black hat technique, if found by SEO robots, website could be penalized and not appear in indexing</t>
+  </si>
+  <si>
+    <t>adding hidden keywords is a black-hat technique to improve SEO, what could be easily recognized by SEO robots, if so, website could be penalized and not appeari in indexing. Also it might be affecting accessibility, since the keywords might be getting focus or be read by screen readers</t>
+  </si>
+  <si>
+    <t>Always use short description of the content of each image on the website</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,11 +212,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +256,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +484,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,10 +666,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
@@ -631,37 +678,47 @@
     </row>
     <row r="10" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+    <row r="12" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="4" t="b">
         <v>0</v>
       </c>
@@ -698,6 +755,11 @@
       <c r="F15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D80062-DB95-436D-8356-97063F4E78BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E466D-6A34-4B23-A001-FC3A41CE7ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>Always use short description of the content of each image on the website</t>
+  </si>
+  <si>
+    <t>wrong paths to js and css files</t>
+  </si>
+  <si>
+    <t>Wrong paths may lead to not working or partial not working code</t>
+  </si>
+  <si>
+    <t>Always make sure to check spelling on the paths and check console for any errors</t>
+  </si>
+  <si>
+    <t>not minified js and css files</t>
+  </si>
+  <si>
+    <t>size of the file may have an impact on website loading time</t>
+  </si>
+  <si>
+    <t>keep your code minified in order to increase loading speed</t>
+  </si>
+  <si>
+    <t>script tags in &lt;head&gt; without defer or async attribiute</t>
+  </si>
+  <si>
+    <t>inserting script tags in head, will require them to be loaded and executed before html loads</t>
+  </si>
+  <si>
+    <t>always insert defer or async attribute in script tag, if placed in &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>gzip</t>
   </si>
 </sst>
 </file>
@@ -189,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -238,6 +268,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -245,17 +286,8 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,7 +295,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,22 +540,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -538,221 +579,250 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="E11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E466D-6A34-4B23-A001-FC3A41CE7ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64169652-54B9-4DB2-9AFE-149AE1A06ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>Category</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Changed description</t>
   </si>
   <si>
-    <t>Description needs to clearly describe your website, and it might content some of the keywords</t>
-  </si>
-  <si>
     <t>Try to adopt best description to your website to encourage  user to click your website and improve indexing</t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t>h2 and paragraph img instead of plain text</t>
   </si>
   <si>
-    <t>text on the image may not be recognizable by screen readers. Also search engines index pages by headings and they must be able to read them, also images slow down the page</t>
-  </si>
-  <si>
     <t>contrast of some elements - h1, footer - was too low (1.5:1)</t>
   </si>
   <si>
-    <t>always maintaint correct contrast ration in order to achieve accessibility</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contrast between regular text to background should be at least 7:1 and 4.5:1 for bold and big fonts in order to provide AAA accessibility </t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t xml:space="preserve">Ideally there should be just one h1 per page, the most important heading(usually on top) describing the purpouse of the page. </t>
   </si>
   <si>
-    <t>Heading level 1 should define purpouse of the page, having multiple h1's might be missleading for search engines and screen readersI have replaced 3 h1 elements to h3</t>
-  </si>
-  <si>
     <t>incorrect lang attribute in html element</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>2. Placing key words in alt attribute is a black hat technique, if found by SEO robots, website could be penalized and not appear in indexing</t>
   </si>
   <si>
-    <t>adding hidden keywords is a black-hat technique to improve SEO, what could be easily recognized by SEO robots, if so, website could be penalized and not appeari in indexing. Also it might be affecting accessibility, since the keywords might be getting focus or be read by screen readers</t>
-  </si>
-  <si>
     <t>Always use short description of the content of each image on the website</t>
   </si>
   <si>
@@ -168,29 +153,146 @@
     <t>always insert defer or async attribute in script tag, if placed in &lt;head&gt;</t>
   </si>
   <si>
-    <t>gzip</t>
+    <t>Missing gzip compression</t>
+  </si>
+  <si>
+    <t>gzip wil reduce website's size by compressing it's content</t>
+  </si>
+  <si>
+    <t>include gzip compression in .htacess file</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-text-compression/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>compressing images to webp format will signifintly decreese it's size, keeping similar quality of the pictures</t>
+  </si>
+  <si>
+    <t>compress all images to webp</t>
+  </si>
+  <si>
+    <t>images in jpg/png format</t>
+  </si>
+  <si>
+    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/att_global_lang.asp</t>
+  </si>
+  <si>
+    <t>Missing preloading request</t>
+  </si>
+  <si>
+    <t>preloading critical assets could improve your website loading speed</t>
+  </si>
+  <si>
+    <t>change rel=stylesheet to rel=preload for critical assets</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-rel-preload/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools
+https://ezgif.com/png-to-webp </t>
+  </si>
+  <si>
+    <t>misisng aria-labels in links</t>
+  </si>
+  <si>
+    <t>aria-labels should be added to any buttons or links which have no visible description e.g. social network buttons</t>
+  </si>
+  <si>
+    <t>aria-labels attribute provides text for an object like a button, and it's content is being read by the screen reader</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WCAG20-TECHS/ARIA6.html</t>
+  </si>
+  <si>
+    <t>https://web.dev/label/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form elements do not have associated labels
+</t>
+  </si>
+  <si>
+    <t>Labels ensure that form controls are announced properly by screen readers</t>
+  </si>
+  <si>
+    <t>always associate form elements with their labels</t>
+  </si>
+  <si>
+    <t>https://web.dev/document-title/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://web.dev/meta-description/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://www.hobo-web.co.uk/headers/#:~:text=One%20H1%20Element%20(or%20tag,are%20keeping%20your%20page%20concise.</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/tutorials/images/textual/</t>
+  </si>
+  <si>
+    <t>https://webaim.org/standards/wcag/checklist#sc1.4.3</t>
+  </si>
+  <si>
+    <t>https://www.wordstream.com/black-hat-seo</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE</t>
+  </si>
+  <si>
+    <t>Description needs to clearly describe your website, and it might contain some of the keywords</t>
+  </si>
+  <si>
+    <t>text on the image may not be recognizable by screen readers. Also search engines index pages by headings and they must be able to read them, additionaly images may slow down the page loading speed</t>
+  </si>
+  <si>
+    <t>always maintain correct contrast ratio in order to achieve accessibility</t>
+  </si>
+  <si>
+    <t>Heading level 1 should define purpouse of the page, having multiple h1's might be missleading for search engines and screen readers | I have replaced 3 h1 elements to h3</t>
+  </si>
+  <si>
+    <t>adding hidden keywords is a black-hat technique to improve SEO, what could be easily recognized by SEO robots, if so, website could be penalized and not appear in indexing. Also it might be affecting accessibility, since the keywords might be getting focus or be read by screen readers</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://web.dev/image-alt/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_filepaths.asp</t>
+  </si>
+  <si>
+    <t>https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtoolshttps://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools
+https://web.dev/unminified-css/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>http://www.outlinenone.com/</t>
+  </si>
+  <si>
+    <t>Lack of outline on focused elements</t>
+  </si>
+  <si>
+    <t>Outline provides visual feedbacks to links and buttons on the website, it helps visual imparient users or thouse who don't use the mouse to see where on website they navigate</t>
+  </si>
+  <si>
+    <t>Make sure you always make outline visable on focused elements of the website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -200,12 +302,45 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +353,14 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -249,66 +390,58 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,40 +655,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="135.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -580,257 +713,406 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>47</v>
+      <c r="B19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{2C2B8C82-BFFA-4478-B7B9-A84A30DFCABD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64169652-54B9-4DB2-9AFE-149AE1A06ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AB8C0-CF0B-49EC-9A85-E171898D50DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>Category</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Try to adopt best description to your website to encourage  user to click your website and improve indexing</t>
   </si>
   <si>
-    <t>never replace text with img</t>
-  </si>
-  <si>
     <t>h2 and paragraph img instead of plain text</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t xml:space="preserve">Ideally there should be just one h1 per page, the most important heading(usually on top) describing the purpouse of the page. </t>
   </si>
   <si>
-    <t>incorrect lang attribute in html element</t>
-  </si>
-  <si>
-    <t>wrong lang attribute might be misleading to both SEO and Accessibility - Screen readers use defined language to read content, each language must be defined on the webpage, also SEO might be using localisation index for best results</t>
-  </si>
-  <si>
     <t>Title is displayed by SEO during search and also read by screen readers</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Always adjust size of the images to their cointainer, use for that graphic applications instead of css</t>
   </si>
   <si>
-    <t>keywords in alt attribute in img elements</t>
-  </si>
-  <si>
     <t>1. Alt attribute is meant to containt a short description of the content of the image, so screen readers can read them out for accessibillity purposes</t>
   </si>
   <si>
@@ -126,54 +114,21 @@
     <t>Always use short description of the content of each image on the website</t>
   </si>
   <si>
-    <t>wrong paths to js and css files</t>
-  </si>
-  <si>
     <t>Wrong paths may lead to not working or partial not working code</t>
   </si>
   <si>
     <t>Always make sure to check spelling on the paths and check console for any errors</t>
   </si>
   <si>
-    <t>not minified js and css files</t>
-  </si>
-  <si>
-    <t>size of the file may have an impact on website loading time</t>
-  </si>
-  <si>
-    <t>keep your code minified in order to increase loading speed</t>
-  </si>
-  <si>
-    <t>script tags in &lt;head&gt; without defer or async attribiute</t>
-  </si>
-  <si>
-    <t>inserting script tags in head, will require them to be loaded and executed before html loads</t>
-  </si>
-  <si>
-    <t>always insert defer or async attribute in script tag, if placed in &lt;head&gt;</t>
-  </si>
-  <si>
     <t>Missing gzip compression</t>
   </si>
   <si>
     <t>gzip wil reduce website's size by compressing it's content</t>
   </si>
   <si>
-    <t>include gzip compression in .htacess file</t>
-  </si>
-  <si>
     <t>https://web.dev/uses-text-compression/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t>compressing images to webp format will signifintly decreese it's size, keeping similar quality of the pictures</t>
-  </si>
-  <si>
-    <t>compress all images to webp</t>
-  </si>
-  <si>
-    <t>images in jpg/png format</t>
-  </si>
-  <si>
     <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -181,12 +136,6 @@
   </si>
   <si>
     <t>Missing preloading request</t>
-  </si>
-  <si>
-    <t>preloading critical assets could improve your website loading speed</t>
-  </si>
-  <si>
-    <t>change rel=stylesheet to rel=preload for critical assets</t>
   </si>
   <si>
     <t>https://web.dev/uses-rel-preload/?utm_source=lighthouse&amp;utm_medium=devtools</t>
@@ -196,9 +145,6 @@
 https://ezgif.com/png-to-webp </t>
   </si>
   <si>
-    <t>misisng aria-labels in links</t>
-  </si>
-  <si>
     <t>aria-labels should be added to any buttons or links which have no visible description e.g. social network buttons</t>
   </si>
   <si>
@@ -211,16 +157,9 @@
     <t>https://web.dev/label/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t xml:space="preserve">Form elements do not have associated labels
-</t>
-  </si>
-  <si>
     <t>Labels ensure that form controls are announced properly by screen readers</t>
   </si>
   <si>
-    <t>always associate form elements with their labels</t>
-  </si>
-  <si>
     <t>https://web.dev/document-title/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -245,18 +184,6 @@
     <t>Description needs to clearly describe your website, and it might contain some of the keywords</t>
   </si>
   <si>
-    <t>text on the image may not be recognizable by screen readers. Also search engines index pages by headings and they must be able to read them, additionaly images may slow down the page loading speed</t>
-  </si>
-  <si>
-    <t>always maintain correct contrast ratio in order to achieve accessibility</t>
-  </si>
-  <si>
-    <t>Heading level 1 should define purpouse of the page, having multiple h1's might be missleading for search engines and screen readers | I have replaced 3 h1 elements to h3</t>
-  </si>
-  <si>
-    <t>adding hidden keywords is a black-hat technique to improve SEO, what could be easily recognized by SEO robots, if so, website could be penalized and not appear in indexing. Also it might be affecting accessibility, since the keywords might be getting focus or be read by screen readers</t>
-  </si>
-  <si>
     <t>https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -266,23 +193,104 @@
     <t>https://www.w3schools.com/html/html_filepaths.asp</t>
   </si>
   <si>
-    <t>https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtoolshttps://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools
+    <t>http://www.outlinenone.com/</t>
+  </si>
+  <si>
+    <t>Lack of outline on focused elements</t>
+  </si>
+  <si>
+    <t>Make sure you always make outline visable on focused elements of the website</t>
+  </si>
+  <si>
+    <t>Mark up different regions of web pages and applications, so that they can be identified by web browsers and assistive technologies.</t>
+  </si>
+  <si>
+    <t>Missing page regions elements</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/tutorials/page-structure/regions/</t>
+  </si>
+  <si>
+    <t>Make sure that you name your page regions correctly in order to make sure that it's accessible by assistive technologies</t>
+  </si>
+  <si>
+    <t>https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools
 https://web.dev/unminified-css/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>http://www.outlinenone.com/</t>
-  </si>
-  <si>
-    <t>Lack of outline on focused elements</t>
-  </si>
-  <si>
-    <t>Outline provides visual feedbacks to links and buttons on the website, it helps visual imparient users or thouse who don't use the mouse to see where on website they navigate</t>
-  </si>
-  <si>
-    <t>Make sure you always make outline visable on focused elements of the website</t>
+    <t>Text on the image may not be recognizable by screen readers. Also search engines index pages by headings and they must be able to read them, additionaly images may slow down the page loading speed</t>
+  </si>
+  <si>
+    <t>Never replace text with img</t>
+  </si>
+  <si>
+    <t>Always maintain correct contrast ratio in order to achieve accessibility</t>
+  </si>
+  <si>
+    <t>Heading level 1 should define purpouse of the page, having multiple h1's might be missleading for search engines and screen readers</t>
+  </si>
+  <si>
+    <t>Incorrect lang attribute in html element</t>
+  </si>
+  <si>
+    <t>Wrong lang attribute might be misleading to both SEO and Accessibility - screen readers use defined language to read content, each language must be defined on the webpage, also SEO might be using localisation index for best results</t>
+  </si>
+  <si>
+    <t>Adding hidden keywords is a black-hat technique to improve SEO, what could be easily recognized by SEO robots, if so, website could be penalized and not appear in indexing. Also it might be affecting accessibility, since the keywords might be getting focus or be read by screen readers</t>
+  </si>
+  <si>
+    <t>Compressing images to webp format will signifintly decreese it's size, keeping similar quality of the pictures</t>
+  </si>
+  <si>
+    <t>Compress all images to webp</t>
+  </si>
+  <si>
+    <t>Images in jpg/png format</t>
+  </si>
+  <si>
+    <t>Keywords in alt attribute in img elements</t>
+  </si>
+  <si>
+    <t>Wrong paths to js and css files</t>
+  </si>
+  <si>
+    <t>Not minified js and css files</t>
+  </si>
+  <si>
+    <t>Size of the file may have an impact on website loading time</t>
+  </si>
+  <si>
+    <t>Keep your code minified in order to increase loading speed</t>
+  </si>
+  <si>
+    <t>Script tags in &lt;head&gt; without defer or async attribiute</t>
+  </si>
+  <si>
+    <t>Inserting script tags in head, will require them to be loaded and executed before html loads</t>
+  </si>
+  <si>
+    <t>Always insert defer or async attribute in the script tag, if placed in the &lt;head&gt; element</t>
+  </si>
+  <si>
+    <t>Include gzip compression in .htacess file</t>
+  </si>
+  <si>
+    <t>Misisng aria-labels in links</t>
+  </si>
+  <si>
+    <t>Form elements do not have associated labels</t>
+  </si>
+  <si>
+    <t>Change rel=stylesheet to rel=preload for critical assets</t>
+  </si>
+  <si>
+    <t>Preloading critical assets could improve your website loading speed</t>
+  </si>
+  <si>
+    <t>Always associate form elements with their labels</t>
+  </si>
+  <si>
+    <t>Outline provides visual feedbacks to links and buttons on the website, it helps visual imparient users or those who don't use the mouse to navigate the website</t>
   </si>
 </sst>
 </file>
@@ -316,14 +324,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -331,13 +341,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -360,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -383,23 +396,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,33 +413,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,7 +657,7 @@
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="135.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="106.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,391 +705,406 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>64</v>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>68</v>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>66</v>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>50</v>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7" t="s">
+    <row r="22" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AB8C0-CF0B-49EC-9A85-E171898D50DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E323E-ABE4-40F1-90AD-80BEFB2346AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Category</t>
   </si>
@@ -291,13 +291,16 @@
   </si>
   <si>
     <t>Outline provides visual feedbacks to links and buttons on the website, it helps visual imparient users or those who don't use the mouse to navigate the website</t>
+  </si>
+  <si>
+    <t>W3C Validator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,6 +316,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -401,31 +411,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,22 +673,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -702,409 +713,414 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="E4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="E6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="b">
+      <c r="E7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="b">
+      <c r="E9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bartek\Desktop\openclassrooms\P4_Bartosz_swiderski\Websites\P4-Project-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E323E-ABE4-40F1-90AD-80BEFB2346AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5715F81-8749-4CAD-B3B9-648E3C1ECD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Category</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>https://www.w3schools.com/tags/att_global_lang.asp</t>
-  </si>
-  <si>
-    <t>Missing preloading request</t>
-  </si>
-  <si>
-    <t>https://web.dev/uses-rel-preload/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
     <t xml:space="preserve">https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools
@@ -281,19 +275,10 @@
     <t>Form elements do not have associated labels</t>
   </si>
   <si>
-    <t>Change rel=stylesheet to rel=preload for critical assets</t>
-  </si>
-  <si>
-    <t>Preloading critical assets could improve your website loading speed</t>
-  </si>
-  <si>
     <t>Always associate form elements with their labels</t>
   </si>
   <si>
     <t>Outline provides visual feedbacks to links and buttons on the website, it helps visual imparient users or those who don't use the mouse to navigate the website</t>
-  </si>
-  <si>
-    <t>W3C Validator</t>
   </si>
 </sst>
 </file>
@@ -363,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +359,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -431,13 +410,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +696,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -741,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -752,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -761,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -795,13 +771,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -812,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
@@ -821,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -829,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -852,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
@@ -861,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -881,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -889,53 +865,53 @@
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
@@ -943,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>29</v>
@@ -955,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -963,19 +939,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -983,13 +959,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
@@ -1009,7 +985,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="b">
         <v>0</v>
@@ -1018,110 +994,88 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="s">
+    <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="E18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>86</v>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="F20" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
+      <c r="D21" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
